--- a/官網超連結列表.xlsx
+++ b/官網超連結列表.xlsx
@@ -12,8 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11265"/>
   </bookViews>
   <sheets>
-    <sheet name="Web test" sheetId="1" r:id="rId1"/>
+    <sheet name="Web test-en" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Web test-en'!$A$1:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,21 +27,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Classification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>href</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/en/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>English</t>
+    <t>https://www.tm-robot.com/en/login/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI Cobot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,12 +102,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -81,6 +113,22 @@
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -97,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -120,30 +168,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -422,116 +538,168 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E2"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Not Support"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
+      <formula1>"Pass,Fail,Pending,Not Support"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/官網超連結列表.xlsx
+++ b/官網超連結列表.xlsx
@@ -12,12 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11265"/>
   </bookViews>
   <sheets>
-    <sheet name="Web test-en" sheetId="1" r:id="rId1"/>
+    <sheet name="首頁_English" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Web test-en'!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">首頁_English!$A$1:$G$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,16 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>Classification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>href</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TM Icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,15 +61,340 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Top bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Menu bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AI Cobot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/zh-hant/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/de/</t>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/ja/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com.cn/zh-hans/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/ko/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連結網址有誤
+1.與正常網址有差異 ".cn"
+2.切換簡體後，每個語系都會變成 ".cn"的網址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM5-700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM5-900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile Series</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/en/tm5-700/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/en/tm5-900/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/en/tm12/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/en/tm14/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/en/tm16/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/en/tm20/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/en/mobile-series/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM 3D Vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/en/tm-ai-aoi-edge/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/en/tm-3dvision/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM Add-on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/en/tm-add-on/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/en/accessories-category/accessory-device/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM AI+ 
+Training Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM AI+ 
+AOI Edge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/en/tm-ai-training-server/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM AI+
+AOI Edge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM Image Manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/en/tm-image-manager/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Solution &amp; Services
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Integration Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM Palletizing Solutions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/en/tm-palletizing-solutions/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM Plug&amp;Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Solution &amp; Services
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Partner Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tm-robot.com/en/tm-plugandplay/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TM Robot</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessories &amp; 
+Software</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solution &amp; Services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Href (record)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language
+changes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,6 +448,27 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -145,7 +484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -194,6 +533,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -203,7 +669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,10 +685,88 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,148 +1079,646 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1"/>
+      <c r="C10" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2"/>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="11">
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D13">
+  <conditionalFormatting sqref="F2:F47">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Not Support"</formula>
     </cfRule>
@@ -691,15 +1733,35 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F47">
       <formula1>"Pass,Fail,Pending,Not Support"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="E10" r:id="rId7"/>
+    <hyperlink ref="E11" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9"/>
+    <hyperlink ref="E12" r:id="rId10"/>
+    <hyperlink ref="E14" r:id="rId11"/>
+    <hyperlink ref="E15" r:id="rId12"/>
+    <hyperlink ref="E16" r:id="rId13"/>
+    <hyperlink ref="E17" r:id="rId14"/>
+    <hyperlink ref="E18" r:id="rId15"/>
+    <hyperlink ref="E19" r:id="rId16"/>
+    <hyperlink ref="E20" r:id="rId17"/>
+    <hyperlink ref="E21" r:id="rId18"/>
+    <hyperlink ref="E22" r:id="rId19"/>
+    <hyperlink ref="E23" r:id="rId20"/>
+    <hyperlink ref="E24" r:id="rId21"/>
+    <hyperlink ref="E25" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>